--- a/2021/认知训练/taskSwitching/trial.xlsx
+++ b/2021/认知训练/taskSwitching/trial.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20377"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\程序设计\2021\taskSwitching\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9CB365-5CC0-4148-A22D-E5AAC8959AA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13935" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="13725" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>trialN</t>
   </si>
@@ -61,22 +55,22 @@
     <t>taskSamples\B8.png</t>
   </si>
   <si>
-    <t>taskSamples\C4_Spatial_ADD_1.png</t>
-  </si>
-  <si>
-    <t>taskSamples\C4_Spatial_ADD_2.png</t>
-  </si>
-  <si>
-    <t>taskSamples\C4_Spatial_ADD_3.png</t>
-  </si>
-  <si>
-    <t>taskSamples\C3_Episodic_SUB_1.png</t>
-  </si>
-  <si>
-    <t>taskSamples\C3_Episodic_SUB_2.png</t>
-  </si>
-  <si>
-    <t>taskSamples\C3_Episodic_SUB_3.png</t>
+    <t>taskSamples\C1_Spatial_ADD_1.png</t>
+  </si>
+  <si>
+    <t>taskSamples\C1_Spatial_ADD_2.png</t>
+  </si>
+  <si>
+    <t>taskSamples\C1_Spatial_ADD_3.png</t>
+  </si>
+  <si>
+    <t>taskSamples\C5_Episodic_SUB_1.png</t>
+  </si>
+  <si>
+    <t>taskSamples\C5_Episodic_SUB_2.png</t>
+  </si>
+  <si>
+    <t>taskSamples\C5_Episodic_SUB_3.png</t>
   </si>
   <si>
     <t>taskSamples\B18.png</t>
@@ -103,22 +97,22 @@
     <t>taskSamples\A9_1.png</t>
   </si>
   <si>
-    <t>taskSamples\C8_Spatial_SUB_1.png</t>
-  </si>
-  <si>
-    <t>taskSamples\C8_Spatial_SUB_2.png</t>
-  </si>
-  <si>
-    <t>taskSamples\C8_Spatial_SUB_3.png</t>
-  </si>
-  <si>
-    <t>taskSamples\C9_Episodic_SUB_1.png</t>
-  </si>
-  <si>
-    <t>taskSamples\C9_Episodic_SUB_2.png</t>
-  </si>
-  <si>
-    <t>taskSamples\C9_Episodic_SUB_3.png</t>
+    <t>taskSamples\C3_Spatial_SUB_1.png</t>
+  </si>
+  <si>
+    <t>taskSamples\C3_Spatial_SUB_2.png</t>
+  </si>
+  <si>
+    <t>taskSamples\C3_Spatial_SUB_3.png</t>
+  </si>
+  <si>
+    <t>taskSamples\C7_Episodic_SUB_1.png</t>
+  </si>
+  <si>
+    <t>taskSamples\C7_Episodic_SUB_2.png</t>
+  </si>
+  <si>
+    <t>taskSamples\C7_Episodic_SUB_3.png</t>
   </si>
   <si>
     <t>taskSamples\A4_1.png</t>
@@ -139,13 +133,13 @@
     <t>taskSamples\B20.png</t>
   </si>
   <si>
-    <t>taskSamples\C2_Spatial_SUB_1.png</t>
-  </si>
-  <si>
-    <t>taskSamples\C2_Spatial_SUB_2.png</t>
-  </si>
-  <si>
-    <t>taskSamples\C2_Spatial_SUB_3.png</t>
+    <t>taskSamples\C4_Spatial_SUB_1.png</t>
+  </si>
+  <si>
+    <t>taskSamples\C4_Spatial_SUB_2.png</t>
+  </si>
+  <si>
+    <t>taskSamples\C4_Spatial_SUB_3.png</t>
   </si>
   <si>
     <t>taskSamples\B6.png</t>
@@ -187,22 +181,22 @@
     <t>taskSamples\B10.png</t>
   </si>
   <si>
-    <t>taskSamples\C7_Episodic_ADD_1.png</t>
-  </si>
-  <si>
-    <t>taskSamples\C7_Episodic_ADD_2.png</t>
-  </si>
-  <si>
-    <t>taskSamples\C7_Episodic_ADD_3.png</t>
-  </si>
-  <si>
-    <t>taskSamples\C10_Spatial_ADD_1.png</t>
-  </si>
-  <si>
-    <t>taskSamples\C10_Spatial_ADD_2.png</t>
-  </si>
-  <si>
-    <t>taskSamples\C10_Spatial_ADD_3.png</t>
+    <t>taskSamples\C10_Episodic_ADD_1.png</t>
+  </si>
+  <si>
+    <t>taskSamples\C10_Episodic_ADD_2.png</t>
+  </si>
+  <si>
+    <t>taskSamples\C10_Episodic_ADD_3.png</t>
+  </si>
+  <si>
+    <t>taskSamples\C2_Spatial_ADD_1.png</t>
+  </si>
+  <si>
+    <t>taskSamples\C2_Spatial_ADD_2.png</t>
+  </si>
+  <si>
+    <t>taskSamples\C2_Spatial_ADD_3.png</t>
   </si>
   <si>
     <t>taskSamples\B4.png</t>
@@ -229,22 +223,22 @@
     <t>taskSamples\A12_2.png</t>
   </si>
   <si>
-    <t>taskSamples\C1_Spatial_ADD_1.png</t>
-  </si>
-  <si>
-    <t>taskSamples\C1_Spatial_ADD_2.png</t>
-  </si>
-  <si>
-    <t>taskSamples\C1_Spatial_ADD_3.png</t>
-  </si>
-  <si>
-    <t>taskSamples\C5_Episodic_SUB_1.png</t>
-  </si>
-  <si>
-    <t>taskSamples\C5_Episodic_SUB_2.png</t>
-  </si>
-  <si>
-    <t>taskSamples\C5_Episodic_SUB_3.png</t>
+    <t>taskSamples\C9_Spatial_ADD_1.png</t>
+  </si>
+  <si>
+    <t>taskSamples\C9_Spatial_ADD_2.png</t>
+  </si>
+  <si>
+    <t>taskSamples\C9_Spatial_ADD_3.png</t>
+  </si>
+  <si>
+    <t>taskSamples\C8_Episodic_SUB_1.png</t>
+  </si>
+  <si>
+    <t>taskSamples\C8_Episodic_SUB_2.png</t>
+  </si>
+  <si>
+    <t>taskSamples\C8_Episodic_SUB_3.png</t>
   </si>
   <si>
     <t>taskSamples\A19_2.png</t>
@@ -257,28 +251,19 @@
   </si>
   <si>
     <t>taskSamples\B12.png</t>
-  </si>
-  <si>
-    <t>求和</t>
-  </si>
-  <si>
-    <t>平均值</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>计数</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,21 +272,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -309,9 +618,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -320,17 +871,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -588,25 +1183,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="33.625" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -632,7 +1229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -652,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -672,7 +1269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -692,7 +1289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -712,7 +1309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -735,10 +1332,10 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -761,10 +1358,10 @@
         <v>5</v>
       </c>
       <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -784,7 +1381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -804,7 +1401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -824,7 +1421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -844,7 +1441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -864,7 +1461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
@@ -884,7 +1481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
@@ -904,7 +1501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
@@ -924,7 +1521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
@@ -950,7 +1547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
@@ -976,7 +1573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
@@ -996,7 +1593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1016,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1036,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1056,7 +1653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1076,7 +1673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1096,7 +1693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1119,10 +1716,10 @@
         <v>5</v>
       </c>
       <c r="H24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1142,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1162,7 +1759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1182,7 +1779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1202,7 +1799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1225,10 +1822,10 @@
         <v>5</v>
       </c>
       <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1248,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1268,7 +1865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1288,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1308,7 +1905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1328,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1348,7 +1945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1374,7 +1971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1400,7 +1997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1420,7 +2017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1440,7 +2037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1460,7 +2057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1480,7 +2077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1500,7 +2097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1520,7 +2117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1540,7 +2137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1560,7 +2157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1583,10 +2180,10 @@
         <v>5</v>
       </c>
       <c r="H46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1609,10 +2206,10 @@
         <v>5</v>
       </c>
       <c r="H47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1632,7 +2229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1652,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1672,7 +2269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1693,16 +2290,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H51" xr:uid="{309F7131-FDAC-4F4F-8862-DBF7B561FF11}">
-    <sortState ref="A2:H51">
+  <autoFilter ref="A1:H51">
+    <sortState ref="A1:H51">
       <sortCondition ref="A1:A51"/>
     </sortState>
+    <extLst/>
   </autoFilter>
   <sortState ref="A2:H51">
     <sortCondition ref="B2:B51"/>
   </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>